--- a/sample_dfa.xlsx
+++ b/sample_dfa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PARAM\AU\Fifth Sem\CSE406 - Theory of Computing\Assignment 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PARAM\AU\Fifth Sem\CSE406 - Theory of Computing\DFA_Minimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372C84CF-A9E2-4E49-95B9-AF00F777DBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD5C021-C89D-4379-AF9F-8B5A0130B581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,33 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>State</t>
   </si>
   <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>Next_State</t>
-  </si>
-  <si>
-    <t>Start_State</t>
-  </si>
-  <si>
-    <t>Final_State</t>
+    <t>→A</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>1</t>
+    <t>G</t>
   </si>
   <si>
     <t>C</t>
@@ -58,26 +46,29 @@
     <t>E</t>
   </si>
   <si>
+    <t>I</t>
+  </si>
+  <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,7 +79,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -96,30 +87,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,178 +395,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
       <c r="C10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
